--- a/doc/excel/run 3.xlsx
+++ b/doc/excel/run 3.xlsx
@@ -36,9 +36,6 @@
     <t>Face Shield</t>
   </si>
   <si>
-    <t>run1</t>
-  </si>
-  <si>
     <t>TP</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>FN</t>
+  </si>
+  <si>
+    <t>run 3</t>
   </si>
 </sst>
 </file>
@@ -268,6 +268,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,7 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="E409" sqref="E409"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,50 +601,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9802,7 +9802,7 @@
       </c>
     </row>
     <row r="402" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="20">
+      <c r="A402" s="11">
         <v>1596</v>
       </c>
       <c r="B402" s="1">
